--- a/2-PERSONAL/1-INGRESOS/7. JULIO-2022-INGRESOS DE PERSONAL.xlsx
+++ b/2-PERSONAL/1-INGRESOS/7. JULIO-2022-INGRESOS DE PERSONAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\1-INGRESOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67A940-3B0A-45A4-BE6C-D9250CB3A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83252B8D-B203-46B0-8679-98C2756980FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>N°</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>Manuel Scorza Mz:D2 Lt:7 - Pucusana</t>
+  </si>
+  <si>
+    <t>SUEL CAYLLAHUA</t>
+  </si>
+  <si>
+    <t>LISET</t>
+  </si>
+  <si>
+    <t>SUEL CAYLLAHUA LISET</t>
   </si>
 </sst>
 </file>
@@ -1257,11 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1276,13 +1284,14 @@
     <col min="8" max="8" width="12.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="19" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="19" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="12" customWidth="1"/>
     <col min="12" max="12" width="11" style="12" customWidth="1"/>
     <col min="13" max="13" width="14" style="12" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="12" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" style="18" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.85546875" style="18" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="18" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="18" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="25.5703125" style="20" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.5703125" style="18" hidden="1" customWidth="1"/>
@@ -1366,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1403,7 +1412,9 @@
       <c r="N2" s="70"/>
       <c r="O2" s="79"/>
       <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="Q2" s="81">
+        <v>44743</v>
+      </c>
       <c r="R2" s="81"/>
       <c r="S2" s="82"/>
       <c r="T2" s="83"/>
@@ -1412,7 +1423,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="79"/>
     </row>
-    <row r="3" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1451,7 +1462,9 @@
         <v>24</v>
       </c>
       <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
+      <c r="Q3" s="81">
+        <v>44743</v>
+      </c>
       <c r="R3" s="81"/>
       <c r="S3" s="82"/>
       <c r="T3" s="83"/>
@@ -1460,7 +1473,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="79"/>
     </row>
-    <row r="4" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1499,7 +1512,9 @@
         <v>24</v>
       </c>
       <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="81">
+        <v>44743</v>
+      </c>
       <c r="R4" s="81"/>
       <c r="S4" s="82"/>
       <c r="T4" s="83"/>
@@ -1547,7 +1562,9 @@
         <v>24</v>
       </c>
       <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
+      <c r="Q5" s="81">
+        <v>44743</v>
+      </c>
       <c r="R5" s="81"/>
       <c r="S5" s="82"/>
       <c r="T5" s="83"/>
@@ -1556,7 +1573,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="79"/>
     </row>
-    <row r="6" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1595,7 +1612,9 @@
         <v>24</v>
       </c>
       <c r="P6" s="80"/>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="81">
+        <v>44743</v>
+      </c>
       <c r="R6" s="81"/>
       <c r="S6" s="82"/>
       <c r="T6" s="83"/>
@@ -1604,7 +1623,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="79"/>
     </row>
-    <row r="7" spans="1:24" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1641,7 +1660,9 @@
         <v>24</v>
       </c>
       <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
+      <c r="Q7" s="81">
+        <v>44743</v>
+      </c>
       <c r="R7" s="81"/>
       <c r="S7" s="82"/>
       <c r="T7" s="83"/>
@@ -1650,7 +1671,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="79"/>
     </row>
-    <row r="8" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -1687,7 +1708,9 @@
       <c r="N8" s="70"/>
       <c r="O8" s="79"/>
       <c r="P8" s="80"/>
-      <c r="Q8" s="81"/>
+      <c r="Q8" s="81">
+        <v>44743</v>
+      </c>
       <c r="R8" s="81"/>
       <c r="S8" s="82"/>
       <c r="T8" s="83"/>
@@ -1696,7 +1719,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="79"/>
     </row>
-    <row r="9" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -1735,7 +1758,9 @@
         <v>24</v>
       </c>
       <c r="P9" s="80"/>
-      <c r="Q9" s="81"/>
+      <c r="Q9" s="81">
+        <v>44743</v>
+      </c>
       <c r="R9" s="81"/>
       <c r="S9" s="82"/>
       <c r="T9" s="83"/>
@@ -1744,7 +1769,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="79"/>
     </row>
-    <row r="10" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1783,7 +1808,9 @@
         <v>24</v>
       </c>
       <c r="P10" s="80"/>
-      <c r="Q10" s="81"/>
+      <c r="Q10" s="81">
+        <v>44743</v>
+      </c>
       <c r="R10" s="81"/>
       <c r="S10" s="82"/>
       <c r="T10" s="83"/>
@@ -1792,7 +1819,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="79"/>
     </row>
-    <row r="11" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1831,7 +1858,9 @@
         <v>24</v>
       </c>
       <c r="P11" s="80"/>
-      <c r="Q11" s="81"/>
+      <c r="Q11" s="81">
+        <v>44743</v>
+      </c>
       <c r="R11" s="81"/>
       <c r="S11" s="82"/>
       <c r="T11" s="83"/>
@@ -1840,7 +1869,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="79"/>
     </row>
-    <row r="12" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -1877,7 +1906,9 @@
       <c r="N12" s="70"/>
       <c r="O12" s="79"/>
       <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
+      <c r="Q12" s="81">
+        <v>44743</v>
+      </c>
       <c r="R12" s="81"/>
       <c r="S12" s="82"/>
       <c r="T12" s="83"/>
@@ -1886,18 +1917,30 @@
       <c r="W12" s="15"/>
       <c r="X12" s="79"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="73">
+        <v>77462803</v>
+      </c>
       <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="F13" s="74">
+        <v>35602</v>
+      </c>
       <c r="G13" s="70"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="75"/>
+      <c r="H13" s="73">
+        <v>920801489</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J13" s="76"/>
       <c r="K13" s="77"/>
       <c r="L13" s="78"/>
@@ -1905,7 +1948,9 @@
       <c r="N13" s="70"/>
       <c r="O13" s="79"/>
       <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
+      <c r="Q13" s="81">
+        <v>44748</v>
+      </c>
       <c r="R13" s="81"/>
       <c r="S13" s="82"/>
       <c r="T13" s="83"/>
@@ -1914,7 +1959,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="79"/>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -1942,7 +1987,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="79"/>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -1970,7 +2015,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="79"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -1998,7 +2043,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="79"/>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -2026,7 +2071,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="79"/>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -2054,7 +2099,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="79"/>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -2082,7 +2127,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="79"/>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -2110,7 +2155,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="79"/>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -2633,13 +2678,7 @@
       <c r="X40" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LOAYZA VILLALOBOS NICOLE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{6DD636E7-3439-4BD7-BC94-D724F55CC8FC}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{B97839F7-1C2F-43CC-9615-63B97D176E5E}"/>
@@ -2661,7 +2700,7 @@
   <dimension ref="B4:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,10 +2853,14 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+        <v>SUEL CAYLLAHUA LISET</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="str">

--- a/2-PERSONAL/1-INGRESOS/7. JULIO-2022-INGRESOS DE PERSONAL.xlsx
+++ b/2-PERSONAL/1-INGRESOS/7. JULIO-2022-INGRESOS DE PERSONAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\1-INGRESOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83252B8D-B203-46B0-8679-98C2756980FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BE25FB-ABD7-48F0-ACAF-A20184E24220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>N°</t>
   </si>
@@ -374,6 +374,78 @@
   </si>
   <si>
     <t>SUEL CAYLLAHUA LISET</t>
+  </si>
+  <si>
+    <t>GARCIA VALENCIA CARLA ELIZABETH</t>
+  </si>
+  <si>
+    <t>GRANDA ESTELA LEONARDO DAVID</t>
+  </si>
+  <si>
+    <t>RAMIREZ CASTILLO MERCEDES ARACELY</t>
+  </si>
+  <si>
+    <t>RUIZ ARCE RUTH ABIGAIL</t>
+  </si>
+  <si>
+    <t>VILLEGAS DOMINGUEZ ADALINDA</t>
+  </si>
+  <si>
+    <t>RAMIREZ RAFAEL FLOR VALERIA</t>
+  </si>
+  <si>
+    <t>CONDORI TOLEDO PAMELA WENDY</t>
+  </si>
+  <si>
+    <t>03698285</t>
+  </si>
+  <si>
+    <t>Cerro de Oro Mz:G Lt:5 - Chilca</t>
+  </si>
+  <si>
+    <t>AAHH Margarita Navarro Chauca Mz:4 Lt:10 - Pucusana</t>
+  </si>
+  <si>
+    <t>Barrio Asuncion de Maria Autop. Panamericana Sur Km:63 - Chilca</t>
+  </si>
+  <si>
+    <t>Manuel Scorza Mz:K Lt:10 - Pucusana</t>
+  </si>
+  <si>
+    <t>Jr. Chancamayo Mz:10 Lt:2 - Chilca</t>
+  </si>
+  <si>
+    <t>Calle Las Rosas Mz:A Lt:14 - Pucusana</t>
+  </si>
+  <si>
+    <t>Manuel Scorza Mz:I Lt:2 - Pucusana</t>
+  </si>
+  <si>
+    <t>Asuncion de Maria 2da Etapa Mz:C Lt:17</t>
+  </si>
+  <si>
+    <t>suel0697@gmail.com</t>
+  </si>
+  <si>
+    <t>carlaelizabeth1517@gmail.com</t>
+  </si>
+  <si>
+    <t>leonardo-estela28@hotmail.com</t>
+  </si>
+  <si>
+    <t>mercedesr978@gmail.com</t>
+  </si>
+  <si>
+    <t>abigailruizarce@gmail.com</t>
+  </si>
+  <si>
+    <t>dalydominguez2014@gmail.com</t>
+  </si>
+  <si>
+    <t>valeriarafael2727@gmail.com</t>
+  </si>
+  <si>
+    <t>condoripamela09@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -711,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,6 +999,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1266,21 +1341,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="33" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="18" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="55" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="19" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="19" hidden="1" customWidth="1"/>
@@ -1375,7 +1451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -1423,7 +1499,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="79"/>
     </row>
-    <row r="3" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1473,7 +1549,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="79"/>
     </row>
-    <row r="4" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -1523,7 +1599,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="79"/>
     </row>
-    <row r="5" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -1573,7 +1649,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="79"/>
     </row>
-    <row r="6" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -1623,7 +1699,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="79"/>
     </row>
-    <row r="7" spans="1:24" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -1671,7 +1747,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="79"/>
     </row>
-    <row r="8" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -1719,7 +1795,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="79"/>
     </row>
-    <row r="9" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -1769,7 +1845,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="79"/>
     </row>
-    <row r="10" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -1819,7 +1895,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="79"/>
     </row>
-    <row r="11" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -1869,7 +1945,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="79"/>
     </row>
-    <row r="12" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="69" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -1917,7 +1993,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="79"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -1934,7 +2010,9 @@
       <c r="F13" s="74">
         <v>35602</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="70" t="s">
+        <v>121</v>
+      </c>
       <c r="H13" s="73">
         <v>920801489</v>
       </c>
@@ -1942,8 +2020,12 @@
         <v>108</v>
       </c>
       <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
+      <c r="K13" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="78">
+        <v>1025</v>
+      </c>
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
       <c r="O13" s="79"/>
@@ -1959,26 +2041,48 @@
       <c r="W13" s="15"/>
       <c r="X13" s="79"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="73">
+        <v>62472492</v>
+      </c>
       <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="75"/>
+      <c r="F14" s="74">
+        <v>36164</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="73">
+        <v>903304870</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="K14" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="78">
+        <v>1025</v>
+      </c>
       <c r="M14" s="70"/>
       <c r="N14" s="70"/>
-      <c r="O14" s="79"/>
+      <c r="O14" s="79" t="s">
+        <v>24</v>
+      </c>
       <c r="P14" s="80"/>
-      <c r="Q14" s="81"/>
+      <c r="Q14" s="81">
+        <v>44753</v>
+      </c>
       <c r="R14" s="81"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
@@ -1987,26 +2091,46 @@
       <c r="W14" s="15"/>
       <c r="X14" s="79"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="73">
+        <v>76296399</v>
+      </c>
       <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="75"/>
+      <c r="F15" s="74">
+        <v>37649</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="73">
+        <v>946102008</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="78">
+        <v>1025</v>
+      </c>
       <c r="M15" s="70"/>
       <c r="N15" s="70"/>
       <c r="O15" s="79"/>
       <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
+      <c r="Q15" s="81">
+        <v>44753</v>
+      </c>
       <c r="R15" s="81"/>
       <c r="S15" s="82"/>
       <c r="T15" s="83"/>
@@ -2015,26 +2139,48 @@
       <c r="W15" s="15"/>
       <c r="X15" s="79"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>120</v>
+      </c>
       <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="75"/>
+      <c r="F16" s="74">
+        <v>28604</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="73">
+        <v>915115654</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
+      <c r="K16" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="78">
+        <v>1025</v>
+      </c>
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
-      <c r="O16" s="79"/>
+      <c r="O16" s="79" t="s">
+        <v>24</v>
+      </c>
       <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
+      <c r="Q16" s="81">
+        <v>44753</v>
+      </c>
       <c r="R16" s="81"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
@@ -2043,26 +2189,48 @@
       <c r="W16" s="15"/>
       <c r="X16" s="79"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="73">
+        <v>75284888</v>
+      </c>
       <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="75"/>
+      <c r="F17" s="74">
+        <v>34782</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="73">
+        <v>934520023</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
+      <c r="K17" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="78">
+        <v>1025</v>
+      </c>
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
-      <c r="O17" s="79"/>
+      <c r="O17" s="79" t="s">
+        <v>24</v>
+      </c>
       <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
+      <c r="Q17" s="81">
+        <v>44753</v>
+      </c>
       <c r="R17" s="81"/>
       <c r="S17" s="82"/>
       <c r="T17" s="83"/>
@@ -2071,26 +2239,46 @@
       <c r="W17" s="15"/>
       <c r="X17" s="79"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="73">
+        <v>48141033</v>
+      </c>
       <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="75"/>
+      <c r="F18" s="74">
+        <v>34382</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="73">
+        <v>958188859</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
+      <c r="K18" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="78">
+        <v>1025</v>
+      </c>
       <c r="M18" s="70"/>
       <c r="N18" s="70"/>
       <c r="O18" s="79"/>
       <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
+      <c r="Q18" s="81">
+        <v>44753</v>
+      </c>
       <c r="R18" s="81"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
@@ -2099,26 +2287,46 @@
       <c r="W18" s="15"/>
       <c r="X18" s="79"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="73">
+        <v>60327991</v>
+      </c>
       <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="75"/>
+      <c r="F19" s="74">
+        <v>37520</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="73">
+        <v>925669948</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
+      <c r="K19" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="78">
+        <v>1025</v>
+      </c>
       <c r="M19" s="70"/>
       <c r="N19" s="70"/>
       <c r="O19" s="79"/>
       <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
+      <c r="Q19" s="81">
+        <v>44755</v>
+      </c>
       <c r="R19" s="81"/>
       <c r="S19" s="82"/>
       <c r="T19" s="83"/>
@@ -2127,26 +2335,48 @@
       <c r="W19" s="15"/>
       <c r="X19" s="79"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="73">
+        <v>74094662</v>
+      </c>
       <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="75"/>
+      <c r="F20" s="74">
+        <v>36726</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="73">
+        <v>997893354</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
+      <c r="K20" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="78">
+        <v>1025</v>
+      </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
-      <c r="O20" s="79"/>
+      <c r="O20" s="79" t="s">
+        <v>24</v>
+      </c>
       <c r="P20" s="80"/>
-      <c r="Q20" s="81"/>
+      <c r="Q20" s="81">
+        <v>44760</v>
+      </c>
       <c r="R20" s="81"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
@@ -2156,58 +2386,56 @@
       <c r="X20" s="79"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>20</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="79"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="79"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
@@ -2302,7 +2530,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="27"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -2328,7 +2556,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="27"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -2380,7 +2608,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="36"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="47"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
@@ -2406,7 +2634,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="36"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="47"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -2432,7 +2660,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="27"/>
+      <c r="O31" s="36"/>
       <c r="P31" s="47"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -2445,52 +2673,52 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="3"/>
       <c r="H32" s="2"/>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="27"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="62"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="64"/>
       <c r="V32" s="28"/>
       <c r="W32" s="11"/>
       <c r="X32" s="27"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="3"/>
       <c r="H33" s="2"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="62"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="64"/>
       <c r="V33" s="28"/>
       <c r="W33" s="11"/>
       <c r="X33" s="27"/>
@@ -2498,15 +2726,15 @@
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -2521,18 +2749,18 @@
       <c r="W34" s="11"/>
       <c r="X34" s="27"/>
     </row>
-    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="22"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -2547,7 +2775,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="27"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -2555,10 +2783,10 @@
       <c r="E36" s="2"/>
       <c r="F36" s="13"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -2573,7 +2801,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="27"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
@@ -2581,10 +2809,10 @@
       <c r="E37" s="2"/>
       <c r="F37" s="13"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -2599,86 +2827,43 @@
       <c r="W37" s="11"/>
       <c r="X37" s="27"/>
     </row>
-    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="27"/>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="31"/>
       <c r="P38" s="48"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="27"/>
-    </row>
-    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="27"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="31"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X20" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="16">
+      <filters>
+        <dateGroupItem year="2022" month="7" day="6" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="7" day="11" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="7" day="13" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="7" day="18" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{6DD636E7-3439-4BD7-BC94-D724F55CC8FC}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{B97839F7-1C2F-43CC-9615-63B97D176E5E}"/>
@@ -2690,8 +2875,17 @@
     <hyperlink ref="K10" r:id="rId8" xr:uid="{39589E00-D5D2-49F6-AFCB-83A5391E77CE}"/>
     <hyperlink ref="K11" r:id="rId9" xr:uid="{D1408C04-18E9-4FCA-94C4-FC04EE2016D0}"/>
     <hyperlink ref="K12" r:id="rId10" xr:uid="{B46C9A6D-E2A5-4DC1-97BC-1CD5057E06C2}"/>
+    <hyperlink ref="K13" r:id="rId11" xr:uid="{19D42088-CA95-4813-ADF2-EB74636DC5A0}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{B487CFA1-812D-4BCF-A9BB-D640ACBB8A06}"/>
+    <hyperlink ref="K15" r:id="rId13" xr:uid="{5CF756C8-F682-4863-B46E-9C2243536332}"/>
+    <hyperlink ref="K16" r:id="rId14" xr:uid="{B43568A2-D911-4207-B17B-65949B02407D}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{6DD28FFF-337B-4CDE-9887-D79EE87E5C68}"/>
+    <hyperlink ref="K18" r:id="rId16" xr:uid="{E5B1EA06-9042-47E9-8151-CBBB896461F4}"/>
+    <hyperlink ref="K19" r:id="rId17" xr:uid="{0AEDC3FF-A37F-4126-831B-36A4426BEDA1}"/>
+    <hyperlink ref="K20" r:id="rId18" xr:uid="{CC1617D9-3A6A-42D3-888D-836086974A16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
